--- a/data/trans_bre/P20B-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P20B-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P20B-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P20B-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-25,83</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,01</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,24</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-89,03%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,48%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,99%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-58,55; 0,0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-50,68; 5,87</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-50,7; 3,41</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,66; 86,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,03</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,87</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,86</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-25,5</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,02%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-78,97%</t>
         </is>
       </c>
     </row>
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,22; -0,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,21; -0,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,34; 8,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,77; 2,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,76; 11,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,82; 31,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,36; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,6</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-27,96</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,52%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,83%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-64,38%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,91%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,63; 4,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,17; 18,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,22; -4,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,55; 18,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,0; 36,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,18; 100,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,51; -2,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,31; 199,18</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,08</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,01</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>123,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,7%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,35%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,78; 44,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,2; 31,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,97; 31,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,78; 26,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,97; 776,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,7; 112,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,34; 131,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,91; 106,93</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,8</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,18</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,28%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,2%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,04; 33,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,82; 32,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,15; 27,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,22; 9,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,02; 131,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,42; 176,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,25; 85,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,48; 37,87</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,76</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,28</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,68</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,36%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,18%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,42%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,21%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,82; 22,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,13; 12,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,19; 29,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,25; 3,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,26; 228,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,12; 73,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,28; 182,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,43; 13,89</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,05</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,13</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,34</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,48</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,05%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,27%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,72%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,57%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,99; 2,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,55; 3,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,67; -0,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,2; -1,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,19; 14,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,16; 15,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,47; -0,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,04; -4,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P20B-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P20B-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,24</t>
+          <t>14,56</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-25,5</t>
+          <t>-25,93</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-78,97%</t>
+          <t>-78,23%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-60,77; 2,84</t>
+          <t>-60,71; 2,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,91%</t>
+          <t>-2,66%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-28,55; 18,58</t>
+          <t>-28,78; 17,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-68,31; 199,18</t>
+          <t>-68,51; 180,07</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,43</t>
+          <t>5,24</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>13,8%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 26,91</t>
+          <t>-15,81; 26,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,91; 106,93</t>
+          <t>-32,68; 108,07</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-8,18</t>
+          <t>-7,91</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-22,2%</t>
+          <t>-21,36%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-26,22; 9,02</t>
+          <t>-26,2; 9,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-58,48; 37,87</t>
+          <t>-58,36; 35,61</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,76</t>
+          <t>12,0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10,28</t>
+          <t>21,27</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-8,68</t>
+          <t>-20,28</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>37,36%</t>
+          <t>54,81%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-9,18%</t>
+          <t>-3,97%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>42,42%</t>
+          <t>89,14%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-27,21%</t>
+          <t>-48,86%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 22,45</t>
+          <t>-11,68; 34,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,13; 12,86</t>
+          <t>-27,01; 22,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 29,41</t>
+          <t>-3,21; 44,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-20,25; 3,22</t>
+          <t>-38,12; -0,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-38,26; 228,8</t>
+          <t>-39,38; 414,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-53,12; 73,18</t>
+          <t>-56,45; 125,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-21,28; 182,58</t>
+          <t>-14,67; 310,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-53,43; 13,89</t>
+          <t>-78,39; -1,53</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-6,05</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-5,13</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-9,34</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-10,48</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-23,05%</t>
+          <t>22,98%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-17,27%</t>
+          <t>-14,24%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-27,72%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-31,57%</t>
+          <t>21,7%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-17,79; 24,36</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-23,26; 14,64</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-22,49; 26,32</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-9,53; 19,36</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-75,24; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-79,43; 323,18</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-64,11; 234,88</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-36,28; 187,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>-6,05</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-5,13</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-9,34</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-10,13</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-23,05%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-17,27%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-27,72%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-30,59%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-14,99; 2,85</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-13,55; 3,55</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-18,67; -0,44</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-18,2; -1,43</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-17,91; -1,1</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-47,19; 14,05</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-39,16; 15,21</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-46,47; -0,52</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-49,04; -4,51</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-48,7; -3,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P20B-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P20B-Edad-trans_bre.xlsx
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-58,55; 0,0</t>
+          <t>-61,98; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-50,68; 5,87</t>
+          <t>-48,49; 6,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-50,7; 3,41</t>
+          <t>-48,29; 7,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-93,66; 86,98</t>
+          <t>-93,49; 116,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-39,22; -0,98</t>
+          <t>-39,87; -0,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,21; -0,4</t>
+          <t>-30,02; 0,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-34,34; 8,33</t>
+          <t>-34,84; 7,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-60,71; 2,92</t>
+          <t>-66,68; 2,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-89,76; 11,2</t>
+          <t>-91,59; 7,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-91,82; 31,0</t>
+          <t>-91,4; 47,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-93,36; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-46,63; 4,59</t>
+          <t>-44,26; 5,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-23,17; 18,57</t>
+          <t>-20,9; 20,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-53,22; -4,62</t>
+          <t>-51,89; -5,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-28,78; 17,86</t>
+          <t>-24,93; 19,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-83,0; 36,45</t>
+          <t>-82,25; 33,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-49,18; 100,11</t>
+          <t>-51,52; 105,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-86,51; -2,68</t>
+          <t>-87,74; -8,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-68,51; 180,07</t>
+          <t>-63,12; 288,59</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 44,46</t>
+          <t>-5,62; 48,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,2; 31,61</t>
+          <t>-14,72; 31,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,97; 31,42</t>
+          <t>-24,21; 32,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,81; 26,69</t>
+          <t>-17,86; 25,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,97; 776,95</t>
+          <t>-31,95; 942,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,7; 112,77</t>
+          <t>-29,5; 112,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-43,34; 131,86</t>
+          <t>-43,25; 143,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,68; 108,07</t>
+          <t>-35,66; 97,23</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-28,04; 33,99</t>
+          <t>-27,27; 31,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,82; 32,62</t>
+          <t>-21,16; 29,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-25,15; 27,68</t>
+          <t>-29,21; 27,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-26,2; 9,61</t>
+          <t>-23,87; 11,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-45,02; 131,11</t>
+          <t>-46,13; 120,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-41,42; 176,3</t>
+          <t>-42,86; 144,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-43,25; 85,77</t>
+          <t>-49,88; 77,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-58,36; 35,61</t>
+          <t>-53,9; 43,94</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 34,73</t>
+          <t>-13,27; 33,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-27,01; 22,28</t>
+          <t>-25,37; 22,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 44,54</t>
+          <t>-3,22; 43,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-38,12; -0,69</t>
+          <t>-38,97; -3,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,38; 414,2</t>
+          <t>-45,91; 351,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-56,45; 125,53</t>
+          <t>-52,48; 111,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-14,67; 310,27</t>
+          <t>-11,28; 300,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-78,39; -1,53</t>
+          <t>-77,8; -8,72</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-17,79; 24,36</t>
+          <t>-18,26; 21,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-23,26; 14,64</t>
+          <t>-23,83; 14,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-22,49; 26,32</t>
+          <t>-19,25; 25,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 19,36</t>
+          <t>-12,45; 18,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-75,24; —</t>
+          <t>-77,95; 536,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-79,43; 323,18</t>
+          <t>-81,96; 205,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-64,11; 234,88</t>
+          <t>-58,24; 295,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-36,28; 187,8</t>
+          <t>-44,26; 160,8</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 2,85</t>
+          <t>-14,98; 1,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-13,55; 3,55</t>
+          <t>-13,37; 2,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,67; -0,44</t>
+          <t>-19,16; 0,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-17,91; -1,1</t>
+          <t>-18,67; -1,36</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-47,19; 14,05</t>
+          <t>-47,18; 10,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-39,16; 15,21</t>
+          <t>-38,75; 12,51</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-46,47; -0,52</t>
+          <t>-47,92; 0,31</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-48,7; -3,85</t>
+          <t>-49,23; -4,93</t>
         </is>
       </c>
     </row>
